--- a/raw_data/KEEN ONE/Byrnes/2015/NW Appledore 2015/NWAppledore_siteinfo_2015.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2015/NW Appledore 2015/NWAppledore_siteinfo_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="2040" windowWidth="21480" windowHeight="9700" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Team</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>LYMAN, CD, SARAH, JD, BYRNES</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -137,8 +146,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -175,7 +186,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -185,6 +196,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -194,6 +206,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -535,19 +548,20 @@
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,38 +574,47 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -604,35 +627,44 @@
       <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="6">
         <v>42228</v>
       </c>
-      <c r="F2" s="8">
+      <c r="I2" s="8">
         <v>42.990202261134897</v>
       </c>
-      <c r="G2" s="8">
+      <c r="J2" s="8">
         <v>-70.618576426058993</v>
       </c>
-      <c r="H2" s="8">
+      <c r="K2" s="8">
         <v>42.989941164851103</v>
       </c>
-      <c r="I2" s="8">
+      <c r="L2" s="8">
         <v>-70.618900889530707</v>
       </c>
-      <c r="J2" s="4">
+      <c r="M2" s="4">
         <v>9.1</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>5.5</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -645,35 +677,44 @@
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="6">
         <v>42226</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>42.992903916165197</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>-70.615604119375305</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>42.992679113522101</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>-70.616129916161299</v>
       </c>
-      <c r="J3" s="4">
+      <c r="M3" s="4">
         <v>10.1</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>9.4</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -686,35 +727,44 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="6">
         <v>42226</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>42.991222590207997</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>42.991071380674803</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>-70.618192534893694</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>-70.618612384423599</v>
       </c>
-      <c r="J4" s="4">
+      <c r="M4" s="4">
         <v>8.5</v>
       </c>
-      <c r="K4" s="4">
+      <c r="N4" s="4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>5</v>
       </c>
-      <c r="M4" s="5">
+      <c r="P4" s="5">
         <v>15.6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -727,37 +777,46 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2015</v>
+      </c>
+      <c r="H5" s="6">
         <v>42226</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>42.990839956328202</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>-70.618359921500002</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>42.990766949951599</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>-70.618585227057295</v>
       </c>
-      <c r="J5" s="7">
+      <c r="M5" s="7">
         <v>10.3</v>
       </c>
-      <c r="K5" s="7">
+      <c r="N5" s="7">
         <v>8.9</v>
       </c>
-      <c r="L5" s="7">
+      <c r="O5" s="7">
         <v>2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="P5" s="5">
         <v>15.6</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="J11" s="7"/>
-      <c r="L11" s="7"/>
+    <row r="11" spans="1:17">
+      <c r="M11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/raw_data/KEEN ONE/Byrnes/2015/NW Appledore 2015/NWAppledore_siteinfo_2015.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2015/NW Appledore 2015/NWAppledore_siteinfo_2015.xlsx
@@ -146,8 +146,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -186,7 +192,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -197,6 +203,9 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -207,6 +216,9 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,7 +551,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -743,10 +755,10 @@
         <v>42.991222590207997</v>
       </c>
       <c r="J4">
+        <v>-70.618192534893694</v>
+      </c>
+      <c r="K4">
         <v>42.991071380674803</v>
-      </c>
-      <c r="K4">
-        <v>-70.618192534893694</v>
       </c>
       <c r="L4">
         <v>-70.618612384423599</v>
